--- a/QuantLibXL/Data/XLS/080_Bond/010_BondDataBase/EUR_FloatingRateBonds2.xlsx
+++ b/QuantLibXL/Data/XLS/080_Bond/010_BondDataBase/EUR_FloatingRateBonds2.xlsx
@@ -4,15 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="15315" windowHeight="19740"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="15315" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="1" r:id="rId1"/>
     <sheet name="FloatingrateBonds" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="BondType">FloatingrateBonds!$C$2</definedName>
     <definedName name="FileName">FloatingrateBonds!$C$3</definedName>
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="212">
   <si>
     <t>General Settings</t>
   </si>
@@ -668,6 +665,9 @@
   </si>
   <si>
     <t>Euribor3653M</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -684,7 +684,7 @@
     <numFmt numFmtId="170" formatCode="General_)"/>
     <numFmt numFmtId="171" formatCode="ddd\,\ d\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1136,22 +1136,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1446,7 +1430,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="1" customWidth="1"/>
@@ -1458,13 +1442,13 @@
     <col min="8" max="16384" width="8" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" thickBot="1">
+    <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" ht="15.75">
+    <row r="2" spans="1:5" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="50" t="s">
         <v>0</v>
@@ -1473,14 +1457,14 @@
       <c r="D2" s="51"/>
       <c r="E2" s="52"/>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="3" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="4" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="8" t="s">
@@ -1489,7 +1473,7 @@
       <c r="D4" s="9"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="8" t="s">
@@ -1500,7 +1484,7 @@
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="6" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="5"/>
       <c r="C6" s="8" t="s">
@@ -1511,7 +1495,7 @@
       </c>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="7" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="5"/>
       <c r="C7" s="8" t="s">
@@ -1522,19 +1506,18 @@
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\080_Bond\010_BondDataBase\</v>
+      <c r="D8" s="11" t="s">
+        <v>211</v>
       </c>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="8" t="s">
@@ -1545,7 +1528,7 @@
       </c>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:5" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
@@ -1572,7 +1555,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="29" customWidth="1"/>
     <col min="2" max="2" width="14.140625" style="29" bestFit="1" customWidth="1"/>
@@ -1605,7 +1588,7 @@
     <col min="32" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="19" customFormat="1">
+    <row r="1" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16"/>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1638,7 +1621,7 @@
       <c r="AD1" s="17"/>
       <c r="AE1" s="18"/>
     </row>
-    <row r="2" spans="1:31" s="19" customFormat="1">
+    <row r="2" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="B2" s="21" t="s">
         <v>10</v>
@@ -1675,7 +1658,7 @@
       <c r="AD2" s="23"/>
       <c r="AE2" s="24"/>
     </row>
-    <row r="3" spans="1:31" s="19" customFormat="1">
+    <row r="3" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20"/>
       <c r="B3" s="25" t="s">
         <v>31</v>
@@ -1713,7 +1696,7 @@
       <c r="AD3" s="23"/>
       <c r="AE3" s="24"/>
     </row>
-    <row r="4" spans="1:31" s="19" customFormat="1">
+    <row r="4" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20"/>
       <c r="B4" s="26" t="s">
         <v>29</v>
@@ -1751,12 +1734,12 @@
       <c r="AD4" s="23"/>
       <c r="AE4" s="24"/>
     </row>
-    <row r="5" spans="1:31" s="19" customFormat="1">
+    <row r="5" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20"/>
       <c r="B5" s="44"/>
       <c r="C5" s="27" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(C4)</f>
-        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
+        <v/>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -1787,7 +1770,7 @@
       <c r="AD5" s="23"/>
       <c r="AE5" s="24"/>
     </row>
-    <row r="6" spans="1:31" s="19" customFormat="1">
+    <row r="6" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20"/>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
@@ -1820,7 +1803,7 @@
       <c r="AD6" s="23"/>
       <c r="AE6" s="24"/>
     </row>
-    <row r="7" spans="1:31" s="19" customFormat="1" ht="22.5">
+    <row r="7" spans="1:31" s="19" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A7" s="20"/>
       <c r="B7" s="42"/>
       <c r="C7" s="40" t="s">
@@ -1909,7 +1892,7 @@
       </c>
       <c r="AE7" s="24"/>
     </row>
-    <row r="8" spans="1:31" s="19" customFormat="1">
+    <row r="8" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20"/>
       <c r="B8" s="43" t="s">
         <v>38</v>
@@ -2004,7 +1987,7 @@
       </c>
       <c r="AE8" s="28"/>
     </row>
-    <row r="9" spans="1:31" s="19" customFormat="1">
+    <row r="9" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20"/>
       <c r="B9" s="43" t="s">
         <v>39</v>
@@ -2099,7 +2082,7 @@
       </c>
       <c r="AE9" s="28"/>
     </row>
-    <row r="10" spans="1:31" s="19" customFormat="1">
+    <row r="10" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20"/>
       <c r="B10" s="43" t="s">
         <v>40</v>
@@ -2194,7 +2177,7 @@
       </c>
       <c r="AE10" s="28"/>
     </row>
-    <row r="11" spans="1:31" s="19" customFormat="1">
+    <row r="11" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20"/>
       <c r="B11" s="43" t="s">
         <v>41</v>
@@ -2289,7 +2272,7 @@
       </c>
       <c r="AE11" s="28"/>
     </row>
-    <row r="12" spans="1:31" s="19" customFormat="1">
+    <row r="12" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20"/>
       <c r="B12" s="43" t="s">
         <v>42</v>
@@ -2384,7 +2367,7 @@
       </c>
       <c r="AE12" s="28"/>
     </row>
-    <row r="13" spans="1:31" s="19" customFormat="1">
+    <row r="13" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20"/>
       <c r="B13" s="43" t="s">
         <v>43</v>
@@ -2479,7 +2462,7 @@
       </c>
       <c r="AE13" s="28"/>
     </row>
-    <row r="14" spans="1:31" s="19" customFormat="1">
+    <row r="14" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20"/>
       <c r="B14" s="43" t="s">
         <v>44</v>
@@ -2574,7 +2557,7 @@
       </c>
       <c r="AE14" s="28"/>
     </row>
-    <row r="15" spans="1:31" s="19" customFormat="1">
+    <row r="15" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20"/>
       <c r="B15" s="43" t="s">
         <v>45</v>
@@ -2669,7 +2652,7 @@
       </c>
       <c r="AE15" s="28"/>
     </row>
-    <row r="16" spans="1:31" s="19" customFormat="1">
+    <row r="16" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="B16" s="43" t="s">
         <v>46</v>
@@ -2764,7 +2747,7 @@
       </c>
       <c r="AE16" s="28"/>
     </row>
-    <row r="17" spans="1:31" s="19" customFormat="1">
+    <row r="17" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
       <c r="B17" s="43" t="s">
         <v>47</v>
@@ -2859,7 +2842,7 @@
       </c>
       <c r="AE17" s="28"/>
     </row>
-    <row r="18" spans="1:31" s="19" customFormat="1">
+    <row r="18" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
       <c r="B18" s="43" t="s">
         <v>48</v>
@@ -2954,7 +2937,7 @@
       </c>
       <c r="AE18" s="28"/>
     </row>
-    <row r="19" spans="1:31" s="19" customFormat="1">
+    <row r="19" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
       <c r="B19" s="43" t="s">
         <v>49</v>
@@ -3049,7 +3032,7 @@
       </c>
       <c r="AE19" s="28"/>
     </row>
-    <row r="20" spans="1:31" s="19" customFormat="1">
+    <row r="20" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20"/>
       <c r="B20" s="43" t="s">
         <v>50</v>
@@ -3144,7 +3127,7 @@
       </c>
       <c r="AE20" s="28"/>
     </row>
-    <row r="21" spans="1:31" s="19" customFormat="1">
+    <row r="21" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
       <c r="B21" s="43" t="s">
         <v>51</v>
@@ -3239,7 +3222,7 @@
       </c>
       <c r="AE21" s="28"/>
     </row>
-    <row r="22" spans="1:31" s="19" customFormat="1">
+    <row r="22" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20"/>
       <c r="B22" s="43" t="s">
         <v>52</v>
@@ -3334,7 +3317,7 @@
       </c>
       <c r="AE22" s="28"/>
     </row>
-    <row r="23" spans="1:31" s="19" customFormat="1">
+    <row r="23" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="20"/>
       <c r="B23" s="43" t="s">
         <v>53</v>
@@ -3429,7 +3412,7 @@
       </c>
       <c r="AE23" s="28"/>
     </row>
-    <row r="24" spans="1:31" s="19" customFormat="1">
+    <row r="24" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="20"/>
       <c r="B24" s="43" t="s">
         <v>54</v>
@@ -3524,7 +3507,7 @@
       </c>
       <c r="AE24" s="28"/>
     </row>
-    <row r="25" spans="1:31" s="19" customFormat="1">
+    <row r="25" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20"/>
       <c r="B25" s="43" t="s">
         <v>55</v>
@@ -3619,7 +3602,7 @@
       </c>
       <c r="AE25" s="28"/>
     </row>
-    <row r="26" spans="1:31" s="19" customFormat="1">
+    <row r="26" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20"/>
       <c r="B26" s="43" t="s">
         <v>56</v>
@@ -3714,7 +3697,7 @@
       </c>
       <c r="AE26" s="28"/>
     </row>
-    <row r="27" spans="1:31" s="19" customFormat="1">
+    <row r="27" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20"/>
       <c r="B27" s="43" t="s">
         <v>57</v>
@@ -3809,7 +3792,7 @@
       </c>
       <c r="AE27" s="28"/>
     </row>
-    <row r="28" spans="1:31" s="19" customFormat="1">
+    <row r="28" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20"/>
       <c r="B28" s="43" t="s">
         <v>58</v>
@@ -3904,7 +3887,7 @@
       </c>
       <c r="AE28" s="28"/>
     </row>
-    <row r="29" spans="1:31" s="19" customFormat="1">
+    <row r="29" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20"/>
       <c r="B29" s="43" t="s">
         <v>59</v>
@@ -3999,7 +3982,7 @@
       </c>
       <c r="AE29" s="28"/>
     </row>
-    <row r="30" spans="1:31" s="19" customFormat="1">
+    <row r="30" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20"/>
       <c r="B30" s="43" t="s">
         <v>60</v>
@@ -4094,7 +4077,7 @@
       </c>
       <c r="AE30" s="28"/>
     </row>
-    <row r="31" spans="1:31" s="19" customFormat="1">
+    <row r="31" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="20"/>
       <c r="B31" s="43" t="s">
         <v>61</v>
@@ -4189,7 +4172,7 @@
       </c>
       <c r="AE31" s="28"/>
     </row>
-    <row r="32" spans="1:31" s="19" customFormat="1">
+    <row r="32" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="20"/>
       <c r="B32" s="43" t="s">
         <v>62</v>
@@ -4284,7 +4267,7 @@
       </c>
       <c r="AE32" s="28"/>
     </row>
-    <row r="33" spans="1:31" s="19" customFormat="1">
+    <row r="33" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="20"/>
       <c r="B33" s="43" t="s">
         <v>63</v>
@@ -4379,7 +4362,7 @@
       </c>
       <c r="AE33" s="28"/>
     </row>
-    <row r="34" spans="1:31" s="19" customFormat="1">
+    <row r="34" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="20"/>
       <c r="B34" s="43" t="s">
         <v>64</v>
@@ -4474,7 +4457,7 @@
       </c>
       <c r="AE34" s="28"/>
     </row>
-    <row r="35" spans="1:31" s="19" customFormat="1">
+    <row r="35" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="20"/>
       <c r="B35" s="43" t="s">
         <v>65</v>
@@ -4569,7 +4552,7 @@
       </c>
       <c r="AE35" s="28"/>
     </row>
-    <row r="36" spans="1:31" s="19" customFormat="1">
+    <row r="36" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="20"/>
       <c r="B36" s="43" t="s">
         <v>66</v>
@@ -4664,7 +4647,7 @@
       </c>
       <c r="AE36" s="28"/>
     </row>
-    <row r="37" spans="1:31" s="19" customFormat="1">
+    <row r="37" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="20"/>
       <c r="B37" s="43" t="s">
         <v>67</v>
@@ -4759,7 +4742,7 @@
       </c>
       <c r="AE37" s="28"/>
     </row>
-    <row r="38" spans="1:31" s="19" customFormat="1">
+    <row r="38" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="20"/>
       <c r="B38" s="43" t="s">
         <v>68</v>
@@ -4854,7 +4837,7 @@
       </c>
       <c r="AE38" s="28"/>
     </row>
-    <row r="39" spans="1:31" s="19" customFormat="1">
+    <row r="39" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="20"/>
       <c r="B39" s="43" t="s">
         <v>69</v>
@@ -4949,7 +4932,7 @@
       </c>
       <c r="AE39" s="28"/>
     </row>
-    <row r="40" spans="1:31" s="19" customFormat="1">
+    <row r="40" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="20"/>
       <c r="B40" s="43" t="s">
         <v>70</v>
@@ -5044,7 +5027,7 @@
       </c>
       <c r="AE40" s="28"/>
     </row>
-    <row r="41" spans="1:31" s="19" customFormat="1">
+    <row r="41" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="20"/>
       <c r="B41" s="43" t="s">
         <v>71</v>
@@ -5139,7 +5122,7 @@
       </c>
       <c r="AE41" s="28"/>
     </row>
-    <row r="42" spans="1:31" s="19" customFormat="1">
+    <row r="42" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="20"/>
       <c r="B42" s="43" t="s">
         <v>72</v>
@@ -5234,7 +5217,7 @@
       </c>
       <c r="AE42" s="28"/>
     </row>
-    <row r="43" spans="1:31" s="19" customFormat="1">
+    <row r="43" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="20"/>
       <c r="B43" s="43" t="s">
         <v>73</v>
@@ -5329,7 +5312,7 @@
       </c>
       <c r="AE43" s="28"/>
     </row>
-    <row r="44" spans="1:31" s="19" customFormat="1">
+    <row r="44" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="20"/>
       <c r="B44" s="43" t="s">
         <v>74</v>
@@ -5424,7 +5407,7 @@
       </c>
       <c r="AE44" s="28"/>
     </row>
-    <row r="45" spans="1:31" s="19" customFormat="1">
+    <row r="45" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="20"/>
       <c r="B45" s="43" t="s">
         <v>75</v>
@@ -5519,7 +5502,7 @@
       </c>
       <c r="AE45" s="28"/>
     </row>
-    <row r="46" spans="1:31" s="19" customFormat="1">
+    <row r="46" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="20"/>
       <c r="B46" s="43" t="s">
         <v>76</v>
@@ -5614,7 +5597,7 @@
       </c>
       <c r="AE46" s="28"/>
     </row>
-    <row r="47" spans="1:31" s="19" customFormat="1">
+    <row r="47" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="20"/>
       <c r="B47" s="43" t="s">
         <v>77</v>
@@ -5709,7 +5692,7 @@
       </c>
       <c r="AE47" s="28"/>
     </row>
-    <row r="48" spans="1:31" s="19" customFormat="1">
+    <row r="48" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="20"/>
       <c r="B48" s="43" t="s">
         <v>78</v>
@@ -5804,16 +5787,14 @@
       </c>
       <c r="AE48" s="28"/>
     </row>
-    <row r="49" spans="1:31" s="19" customFormat="1">
+    <row r="49" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="20"/>
       <c r="B49" s="43" t="s">
         <v>79</v>
       </c>
       <c r="C49" s="31" t="str">
         <f ca="1">IF(ISERROR(AC49),_xll.ohRangeRetrieveError(AC49),_xll.ohRangeRetrieveError(AD49))</f>
-        <v>qlFloatingRateBond - 
- cannot calculate forward rate between December 2nd, 2008 and December 2nd, 2008:
- non positive time (0) using Actual/360 daycounter</v>
+        <v/>
       </c>
       <c r="D49" s="36">
         <v>39721</v>
@@ -5901,7 +5882,7 @@
       </c>
       <c r="AE49" s="28"/>
     </row>
-    <row r="50" spans="1:31" s="19" customFormat="1">
+    <row r="50" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="20"/>
       <c r="B50" s="43" t="s">
         <v>80</v>
@@ -5996,7 +5977,7 @@
       </c>
       <c r="AE50" s="28"/>
     </row>
-    <row r="51" spans="1:31" s="19" customFormat="1">
+    <row r="51" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="20"/>
       <c r="B51" s="43" t="s">
         <v>81</v>
@@ -6091,7 +6072,7 @@
       </c>
       <c r="AE51" s="28"/>
     </row>
-    <row r="52" spans="1:31" s="19" customFormat="1">
+    <row r="52" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20"/>
       <c r="B52" s="43" t="s">
         <v>82</v>
@@ -6186,7 +6167,7 @@
       </c>
       <c r="AE52" s="28"/>
     </row>
-    <row r="53" spans="1:31">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53" s="20"/>
       <c r="B53" s="43" t="s">
         <v>83</v>
@@ -6281,7 +6262,7 @@
       </c>
       <c r="AE53" s="28"/>
     </row>
-    <row r="54" spans="1:31">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A54" s="20"/>
       <c r="B54" s="43" t="s">
         <v>84</v>
@@ -6376,7 +6357,7 @@
       </c>
       <c r="AE54" s="28"/>
     </row>
-    <row r="55" spans="1:31">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55" s="20"/>
       <c r="B55" s="43" t="s">
         <v>85</v>
@@ -6471,7 +6452,7 @@
       </c>
       <c r="AE55" s="28"/>
     </row>
-    <row r="56" spans="1:31" s="19" customFormat="1">
+    <row r="56" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="20"/>
       <c r="B56" s="43" t="s">
         <v>86</v>
@@ -6566,7 +6547,7 @@
       </c>
       <c r="AE56" s="28"/>
     </row>
-    <row r="57" spans="1:31">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A57" s="20"/>
       <c r="B57" s="43" t="s">
         <v>87</v>
@@ -6661,7 +6642,7 @@
       </c>
       <c r="AE57" s="28"/>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A58" s="20"/>
       <c r="B58" s="43" t="s">
         <v>88</v>
@@ -6756,7 +6737,7 @@
       </c>
       <c r="AE58" s="28"/>
     </row>
-    <row r="59" spans="1:31">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A59" s="20"/>
       <c r="B59" s="43" t="s">
         <v>89</v>
@@ -6851,7 +6832,7 @@
       </c>
       <c r="AE59" s="28"/>
     </row>
-    <row r="60" spans="1:31">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A60" s="20"/>
       <c r="B60" s="43" t="s">
         <v>90</v>
@@ -6946,7 +6927,7 @@
       </c>
       <c r="AE60" s="28"/>
     </row>
-    <row r="61" spans="1:31">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A61" s="20"/>
       <c r="B61" s="43" t="s">
         <v>91</v>
@@ -7041,7 +7022,7 @@
       </c>
       <c r="AE61" s="28"/>
     </row>
-    <row r="62" spans="1:31">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A62" s="20"/>
       <c r="B62" s="43" t="s">
         <v>92</v>
@@ -7136,7 +7117,7 @@
       </c>
       <c r="AE62" s="28"/>
     </row>
-    <row r="63" spans="1:31">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A63" s="20"/>
       <c r="B63" s="43" t="s">
         <v>93</v>
@@ -7231,7 +7212,7 @@
       </c>
       <c r="AE63" s="28"/>
     </row>
-    <row r="64" spans="1:31">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A64" s="20"/>
       <c r="B64" s="43" t="s">
         <v>94</v>
@@ -7326,7 +7307,7 @@
       </c>
       <c r="AE64" s="28"/>
     </row>
-    <row r="65" spans="1:31">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A65" s="20"/>
       <c r="B65" s="43" t="s">
         <v>95</v>
@@ -7421,7 +7402,7 @@
       </c>
       <c r="AE65" s="28"/>
     </row>
-    <row r="66" spans="1:31">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A66" s="20"/>
       <c r="B66" s="43" t="s">
         <v>96</v>
@@ -7516,7 +7497,7 @@
       </c>
       <c r="AE66" s="28"/>
     </row>
-    <row r="67" spans="1:31">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A67" s="20"/>
       <c r="B67" s="43" t="s">
         <v>97</v>
@@ -7611,7 +7592,7 @@
       </c>
       <c r="AE67" s="28"/>
     </row>
-    <row r="68" spans="1:31">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A68" s="20"/>
       <c r="B68" s="43" t="s">
         <v>98</v>
@@ -7706,7 +7687,7 @@
       </c>
       <c r="AE68" s="28"/>
     </row>
-    <row r="69" spans="1:31">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A69" s="20"/>
       <c r="B69" s="43" t="s">
         <v>99</v>
@@ -7801,7 +7782,7 @@
       </c>
       <c r="AE69" s="28"/>
     </row>
-    <row r="70" spans="1:31">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A70" s="20"/>
       <c r="B70" s="43" t="s">
         <v>100</v>
@@ -7896,7 +7877,7 @@
       </c>
       <c r="AE70" s="28"/>
     </row>
-    <row r="71" spans="1:31">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A71" s="20"/>
       <c r="B71" s="43" t="s">
         <v>101</v>
@@ -7991,7 +7972,7 @@
       </c>
       <c r="AE71" s="28"/>
     </row>
-    <row r="72" spans="1:31">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A72" s="20"/>
       <c r="B72" s="43" t="s">
         <v>102</v>
@@ -8086,7 +8067,7 @@
       </c>
       <c r="AE72" s="28"/>
     </row>
-    <row r="73" spans="1:31">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A73" s="20"/>
       <c r="B73" s="43" t="s">
         <v>103</v>
@@ -8181,7 +8162,7 @@
       </c>
       <c r="AE73" s="28"/>
     </row>
-    <row r="74" spans="1:31">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A74" s="20"/>
       <c r="B74" s="43" t="s">
         <v>104</v>
@@ -8276,7 +8257,7 @@
       </c>
       <c r="AE74" s="28"/>
     </row>
-    <row r="75" spans="1:31">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A75" s="20"/>
       <c r="B75" s="43" t="s">
         <v>105</v>
@@ -8371,7 +8352,7 @@
       </c>
       <c r="AE75" s="28"/>
     </row>
-    <row r="76" spans="1:31">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A76" s="20"/>
       <c r="B76" s="43" t="s">
         <v>106</v>
@@ -8466,7 +8447,7 @@
       </c>
       <c r="AE76" s="28"/>
     </row>
-    <row r="77" spans="1:31">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A77" s="20"/>
       <c r="B77" s="43" t="s">
         <v>107</v>
@@ -8561,7 +8542,7 @@
       </c>
       <c r="AE77" s="28"/>
     </row>
-    <row r="78" spans="1:31">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A78" s="20"/>
       <c r="B78" s="43" t="s">
         <v>108</v>
@@ -8656,7 +8637,7 @@
       </c>
       <c r="AE78" s="28"/>
     </row>
-    <row r="79" spans="1:31">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A79" s="20"/>
       <c r="B79" s="43" t="s">
         <v>109</v>
@@ -8751,7 +8732,7 @@
       </c>
       <c r="AE79" s="28"/>
     </row>
-    <row r="80" spans="1:31">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A80" s="20"/>
       <c r="B80" s="43" t="s">
         <v>110</v>
@@ -8846,7 +8827,7 @@
       </c>
       <c r="AE80" s="28"/>
     </row>
-    <row r="81" spans="1:31">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A81" s="20"/>
       <c r="B81" s="43" t="s">
         <v>111</v>
@@ -8941,7 +8922,7 @@
       </c>
       <c r="AE81" s="28"/>
     </row>
-    <row r="82" spans="1:31">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A82" s="20"/>
       <c r="B82" s="43" t="s">
         <v>112</v>
@@ -9036,7 +9017,7 @@
       </c>
       <c r="AE82" s="28"/>
     </row>
-    <row r="83" spans="1:31">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A83" s="20"/>
       <c r="B83" s="43" t="s">
         <v>113</v>
@@ -9131,7 +9112,7 @@
       </c>
       <c r="AE83" s="28"/>
     </row>
-    <row r="84" spans="1:31">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A84" s="20"/>
       <c r="B84" s="43" t="s">
         <v>114</v>
@@ -9226,7 +9207,7 @@
       </c>
       <c r="AE84" s="28"/>
     </row>
-    <row r="85" spans="1:31">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A85" s="20"/>
       <c r="B85" s="43" t="s">
         <v>115</v>
@@ -9321,7 +9302,7 @@
       </c>
       <c r="AE85" s="28"/>
     </row>
-    <row r="86" spans="1:31" s="19" customFormat="1" ht="12" thickBot="1">
+    <row r="86" spans="1:31" s="19" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="45"/>
       <c r="B86" s="46"/>
       <c r="C86" s="46"/>

--- a/QuantLibXL/Data/XLS/080_Bond/010_BondDataBase/EUR_FloatingRateBonds2.xlsx
+++ b/QuantLibXL/Data/XLS/080_Bond/010_BondDataBase/EUR_FloatingRateBonds2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="211">
   <si>
     <t>General Settings</t>
   </si>
@@ -665,9 +665,6 @@
   </si>
   <si>
     <t>Euribor3653M</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1512,8 +1509,9 @@
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>211</v>
+      <c r="D8" s="11" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\080_Bond\010_BondDataBase\</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -1702,8 +1700,8 @@
         <v>29</v>
       </c>
       <c r="C4" s="22" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(AC8:AD55,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(AC8:AD55,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -1737,9 +1735,9 @@
     <row r="5" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20"/>
       <c r="B5" s="44"/>
-      <c r="C5" s="27" t="str">
+      <c r="C5" s="27" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(C4)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -5792,9 +5790,9 @@
       <c r="B49" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="31" t="str">
+      <c r="C49" s="31" t="e">
         <f ca="1">IF(ISERROR(AC49),_xll.ohRangeRetrieveError(AC49),_xll.ohRangeRetrieveError(AD49))</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="D49" s="36">
         <v>39721</v>
